--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanya\CLionProjects\CppAdventureGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12ECCD2-EE59-4B8F-BE4B-B8902C68F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F09C9-5DBA-49DE-9B24-79B66B4B4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>M;NR;</t>
   </si>
   <si>
-    <t>M;R;</t>
-  </si>
-  <si>
     <t>M;</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>U;</t>
-  </si>
-  <si>
-    <t>P;R;</t>
   </si>
   <si>
     <t>P;NR;</t>
@@ -91,9 +85,6 @@
   </si>
   <si>
     <t>P;NC;NR;</t>
-  </si>
-  <si>
-    <t>P;R;NC;</t>
   </si>
   <si>
     <t>P;RD0101;NT;</t>
@@ -132,22 +123,31 @@
     <t>C;NT;</t>
   </si>
   <si>
-    <t>C;R;</t>
-  </si>
-  <si>
     <t>C;NR;</t>
   </si>
   <si>
     <t>UC;</t>
   </si>
   <si>
-    <t>C;P;R;</t>
-  </si>
-  <si>
     <t>C;P;NR;</t>
   </si>
   <si>
     <t>P;BRB;</t>
+  </si>
+  <si>
+    <t>M;RV;</t>
+  </si>
+  <si>
+    <t>P;RV;</t>
+  </si>
+  <si>
+    <t>P;RV;NC;</t>
+  </si>
+  <si>
+    <t>C;RV;</t>
+  </si>
+  <si>
+    <t>C;P;RV;</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -237,6 +237,77 @@
     <dxf>
       <font>
         <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2F8B61"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -571,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EU90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CK26" sqref="CK26"/>
+    <sheetView tabSelected="1" topLeftCell="AY4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CH14" sqref="CH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>6</v>
@@ -1023,10 +1094,10 @@
         <v>6</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="ET1" s="1" t="s">
         <v>4</v>
@@ -1233,10 +1304,10 @@
         <v>4</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>6</v>
@@ -1473,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="EQ2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="ER2" s="1" t="s">
         <v>4</v>
@@ -1683,19 +1754,19 @@
         <v>4</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>6</v>
@@ -1923,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="EQ3" s="1" t="s">
         <v>4</v>
@@ -2130,28 +2201,28 @@
         <v>4</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BN4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BS4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="BT4" s="1" t="s">
         <v>6</v>
@@ -2373,10 +2444,10 @@
         <v>6</v>
       </c>
       <c r="EO4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EP4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="EQ4" s="1" t="s">
         <v>4</v>
@@ -2580,52 +2651,52 @@
         <v>4</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BL5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BT5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BV5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BP5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BT5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="BW5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BX5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BY5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BZ5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CA5" s="3" t="s">
         <v>6</v>
@@ -2808,25 +2879,25 @@
         <v>6</v>
       </c>
       <c r="EI5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EJ5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EK5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EL5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EM5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EN5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EO5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="EP5" s="1" t="s">
         <v>4</v>
@@ -3030,256 +3101,256 @@
         <v>4</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BK6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BL6" s="3" t="s">
+      <c r="BZ6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BM6" s="3" t="s">
+      <c r="CA6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BN6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CA6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="CB6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CG6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CK6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CL6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CN6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CO6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CP6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CV6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CX6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CY6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DB6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DC6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DD6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DF6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DH6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DI6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DK6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DL6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DM6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DN6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DO6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DP6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DQ6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DS6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DT6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DW6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DX6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DY6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DZ6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EA6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EB6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EC6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="ED6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EE6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EF6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EG6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EH6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EI6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EJ6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EK6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EL6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EN6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EO6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EP6" s="1" t="s">
         <v>4</v>
@@ -3483,229 +3554,229 @@
         <v>4</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BK7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BL7" s="3" t="s">
+      <c r="CB7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BM7" s="3" t="s">
+      <c r="CC7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BN7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="CD7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CG7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CI7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CJ7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CK7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CL7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CN7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CO7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CP7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CV7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CX7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CY7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CZ7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DB7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DC7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DD7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DF7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DH7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DI7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DK7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DL7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DM7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DN7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DO7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DP7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DQ7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DS7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DT7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DW7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DX7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DY7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DZ7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EA7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EB7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EC7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="ED7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EE7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EF7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EG7" s="1" t="s">
         <v>7</v>
@@ -3717,19 +3788,19 @@
         <v>7</v>
       </c>
       <c r="EJ7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EN7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EO7" s="1" t="s">
         <v>4</v>
@@ -3933,226 +4004,226 @@
         <v>4</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BJ8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BK8" s="3" t="s">
+      <c r="CF8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BL8" s="3" t="s">
+      <c r="CG8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BM8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CF8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CG8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="CH8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CI8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CK8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CL8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CM8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CN8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CO8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CP8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CS8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CT8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CV8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CX8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CY8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CZ8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DA8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DB8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DC8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DD8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DE8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DF8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DH8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DI8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DK8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DL8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DM8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DN8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DO8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DP8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DQ8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DS8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DT8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DW8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DX8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DY8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DZ8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EA8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EB8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EC8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="ED8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EE8" s="1" t="s">
         <v>7</v>
@@ -4167,22 +4238,22 @@
         <v>7</v>
       </c>
       <c r="EI8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EN8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EO8" s="1" t="s">
         <v>4</v>
@@ -4383,25 +4454,25 @@
         <v>4</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO9" s="3" t="s">
         <v>7</v>
@@ -4551,10 +4622,10 @@
         <v>7</v>
       </c>
       <c r="DL9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DM9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DN9" s="1" t="s">
         <v>7</v>
@@ -4620,22 +4691,22 @@
         <v>7</v>
       </c>
       <c r="EI9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EN9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EO9" s="1" t="s">
         <v>4</v>
@@ -4833,37 +4904,37 @@
         <v>4</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR10" s="3" t="s">
         <v>7</v>
@@ -5004,10 +5075,10 @@
         <v>7</v>
       </c>
       <c r="DL10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DM10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DN10" s="1" t="s">
         <v>7</v>
@@ -5070,22 +5141,22 @@
         <v>7</v>
       </c>
       <c r="EH10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EN10" s="1" t="s">
         <v>4</v>
@@ -5286,43 +5357,43 @@
         <v>4</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BT11" s="3" t="s">
         <v>8</v>
@@ -5457,10 +5528,10 @@
         <v>7</v>
       </c>
       <c r="DL11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DM11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN11" s="1" t="s">
         <v>7</v>
@@ -5520,25 +5591,25 @@
         <v>7</v>
       </c>
       <c r="EG11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EN11" s="1" t="s">
         <v>4</v>
@@ -5739,49 +5810,49 @@
         <v>4</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BL12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BM12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BT12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="BV12" s="3" t="s">
         <v>9</v>
@@ -5907,16 +5978,16 @@
         <v>7</v>
       </c>
       <c r="DK12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DM12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO12" s="1" t="s">
         <v>7</v>
@@ -5970,25 +6041,25 @@
         <v>7</v>
       </c>
       <c r="EF12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EL12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EM12" s="1" t="s">
         <v>4</v>
@@ -6201,247 +6272,247 @@
         <v>4</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BK13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DL13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DM13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DN13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DO13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DR13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="ED13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BL13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BM13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BQ13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BR13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BS13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BT13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="BU13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="BV13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CL13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CN13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CX13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CY13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CZ13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DA13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DB13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DC13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DD13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DE13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DF13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DG13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DH13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DI13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DJ13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DK13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="DL13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="DM13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="DN13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="DO13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DP13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DQ13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DR13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DT13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DU13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DV13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DW13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DX13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DY13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DZ13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EA13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EB13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="ED13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EE13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="EG13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="EH13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="EI13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="EJ13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="EK13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="EL13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="EM13" s="1" t="s">
         <v>4</v>
@@ -6660,43 +6731,43 @@
         <v>5</v>
       </c>
       <c r="BL14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BM14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BO14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BP14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BQ14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BT14" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BV14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY14" s="3" t="s">
         <v>7</v>
@@ -6810,19 +6881,19 @@
         <v>7</v>
       </c>
       <c r="DJ14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DK14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO14" s="1" t="s">
         <v>7</v>
@@ -6873,25 +6944,25 @@
         <v>7</v>
       </c>
       <c r="EE14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EK14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EL14" s="1" t="s">
         <v>4</v>
@@ -7116,49 +7187,49 @@
         <v>4</v>
       </c>
       <c r="BM15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BN15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BQ15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BR15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BS15" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="BT15" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BU15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BV15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB15" s="3" t="s">
         <v>7</v>
@@ -7263,22 +7334,22 @@
         <v>7</v>
       </c>
       <c r="DJ15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DK15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP15" s="1" t="s">
         <v>7</v>
@@ -7326,22 +7397,22 @@
         <v>7</v>
       </c>
       <c r="EE15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EK15" s="1" t="s">
         <v>4</v>
@@ -7572,55 +7643,55 @@
         <v>4</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BR16" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BS16" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="BT16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BU16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE16" s="3" t="s">
         <v>7</v>
@@ -7716,25 +7787,25 @@
         <v>7</v>
       </c>
       <c r="DJ16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DK16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ16" s="1" t="s">
         <v>7</v>
@@ -7779,22 +7850,22 @@
         <v>7</v>
       </c>
       <c r="EE16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EJ16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EK16" s="1" t="s">
         <v>4</v>
@@ -8028,55 +8099,55 @@
         <v>4</v>
       </c>
       <c r="BO17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BP17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BR17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BS17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BT17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BU17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BV17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF17" s="3" t="s">
         <v>7</v>
@@ -8169,25 +8240,25 @@
         <v>7</v>
       </c>
       <c r="DJ17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DK17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ17" s="1" t="s">
         <v>7</v>
@@ -8232,19 +8303,19 @@
         <v>7</v>
       </c>
       <c r="EE17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EJ17" s="1" t="s">
         <v>4</v>
@@ -8484,58 +8555,58 @@
         <v>4</v>
       </c>
       <c r="BP18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="BQ18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BR18" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="BS18" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="BT18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH18" s="3" t="s">
         <v>7</v>
@@ -8556,34 +8627,34 @@
         <v>7</v>
       </c>
       <c r="CN18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CQ18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CR18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CX18" s="1" t="s">
         <v>7</v>
@@ -8604,10 +8675,10 @@
         <v>7</v>
       </c>
       <c r="DD18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DE18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DF18" s="1" t="s">
         <v>7</v>
@@ -8619,34 +8690,34 @@
         <v>7</v>
       </c>
       <c r="DI18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS18" s="1" t="s">
         <v>7</v>
@@ -8679,22 +8750,22 @@
         <v>7</v>
       </c>
       <c r="EC18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EI18" s="1" t="s">
         <v>4</v>
@@ -8937,61 +9008,61 @@
         <v>4</v>
       </c>
       <c r="BP19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BQ19" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BR19" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BS19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BT19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI19" s="3" t="s">
         <v>7</v>
@@ -9000,49 +9071,49 @@
         <v>7</v>
       </c>
       <c r="CK19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CL19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="CM19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CN19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CQ19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CR19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CX19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CY19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CZ19" s="1" t="s">
         <v>7</v>
@@ -9051,61 +9122,61 @@
         <v>7</v>
       </c>
       <c r="DB19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DC19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DD19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DE19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DF19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DG19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DL19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU19" s="1" t="s">
         <v>7</v>
@@ -9126,28 +9197,28 @@
         <v>7</v>
       </c>
       <c r="EA19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EI19" s="1" t="s">
         <v>4</v>
@@ -9387,220 +9458,220 @@
         <v>4</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BP20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BQ20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BR20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BS20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BT20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CK20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="CL20" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="CM20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="CN20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CQ20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CR20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CX20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CY20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CZ20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DA20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DB20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DC20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DD20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DE20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DF20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DG20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DH20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DL20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EH20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EI20" s="1" t="s">
         <v>4</v>
@@ -9840,217 +9911,217 @@
         <v>4</v>
       </c>
       <c r="BO21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BP21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BT21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CK21" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CL21" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="CM21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="CN21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CQ21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CR21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CX21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CY21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CZ21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DA21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DB21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DC21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DD21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DL21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EH21" s="1" t="s">
         <v>4</v>
@@ -10290,19 +10361,19 @@
         <v>4</v>
       </c>
       <c r="BN22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BQ22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BS22" s="3" t="s">
         <v>4</v>
@@ -10311,199 +10382,199 @@
         <v>4</v>
       </c>
       <c r="BU22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BV22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BW22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BY22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BZ22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="CE22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CK22" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CL22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CM22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CQ22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CR22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CX22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CY22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CZ22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DA22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DB22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DC22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DL22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EH22" s="1" t="s">
         <v>4</v>
@@ -10740,19 +10811,19 @@
         <v>4</v>
       </c>
       <c r="BM23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BN23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BR23" s="1" t="s">
         <v>4</v>
@@ -10779,181 +10850,181 @@
         <v>4</v>
       </c>
       <c r="BZ23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CB23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CC23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ23" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CK23" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CL23" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CM23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DL23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EG23" s="1" t="s">
         <v>4</v>
@@ -11193,16 +11264,16 @@
         <v>4</v>
       </c>
       <c r="BM24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BN24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BP24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BQ24" s="1" t="s">
         <v>4</v>
@@ -11241,172 +11312,172 @@
         <v>4</v>
       </c>
       <c r="CC24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CD24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CE24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CF24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CJ24" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CK24" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CL24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CM24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DL24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DM24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DN24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DO24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DP24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EF24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EG24" s="1" t="s">
         <v>4</v>
@@ -11643,13 +11714,13 @@
         <v>4</v>
       </c>
       <c r="BL25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BM25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BO25" s="3" t="s">
         <v>4</v>
@@ -11703,97 +11774,97 @@
         <v>4</v>
       </c>
       <c r="CF25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CG25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CH25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CJ25" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CK25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CL25" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="CM25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DI25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DJ25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DK25" s="1" t="s">
         <v>4</v>
@@ -11811,52 +11882,52 @@
         <v>4</v>
       </c>
       <c r="DP25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DQ25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DR25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="ED25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EF25" s="1" t="s">
         <v>4</v>
@@ -12096,10 +12167,10 @@
         <v>4</v>
       </c>
       <c r="BL26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BM26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BN26" s="1" t="s">
         <v>4</v>
@@ -12162,82 +12233,82 @@
         <v>4</v>
       </c>
       <c r="CH26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CI26" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="CJ26" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CK26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="CL26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DH26" s="1" t="s">
         <v>4</v>
@@ -12270,43 +12341,43 @@
         <v>4</v>
       </c>
       <c r="DR26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DS26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DT26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DW26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EB26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="ED26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EE26" s="1" t="s">
         <v>4</v>
@@ -12621,73 +12692,73 @@
         <v>4</v>
       </c>
       <c r="CJ27" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CK27" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CL27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DG27" s="1" t="s">
         <v>4</v>
@@ -12729,31 +12800,31 @@
         <v>4</v>
       </c>
       <c r="DT27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DU27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DV27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DW27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DZ27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EA27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EB27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EC27" s="1" t="s">
         <v>4</v>
@@ -13077,67 +13148,67 @@
         <v>4</v>
       </c>
       <c r="CK28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CL28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DE28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DF28" s="1" t="s">
         <v>4</v>
@@ -13191,16 +13262,16 @@
         <v>4</v>
       </c>
       <c r="DW28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DX28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DY28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DZ28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EA28" s="1" t="s">
         <v>4</v>
@@ -13533,58 +13604,58 @@
         <v>4</v>
       </c>
       <c r="CL29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CM29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DB29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DC29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DD29" s="1" t="s">
         <v>4</v>
@@ -13989,46 +14060,46 @@
         <v>4</v>
       </c>
       <c r="CM30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CN30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CY30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CZ30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="DA30" s="1" t="s">
         <v>4</v>
@@ -14445,34 +14516,34 @@
         <v>4</v>
       </c>
       <c r="CN31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CO31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CW31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CX31" s="1" t="s">
         <v>4</v>
@@ -14901,25 +14972,25 @@
         <v>4</v>
       </c>
       <c r="CO32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CP32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CQ32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CU32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CV32" s="1" t="s">
         <v>4</v>
@@ -15360,13 +15431,13 @@
         <v>4</v>
       </c>
       <c r="CQ33" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CR33" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CS33" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CT33" s="1" t="s">
         <v>4</v>
@@ -41352,40 +41423,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:ET90">
-    <cfRule type="beginsWith" dxfId="11" priority="12" operator="beginsWith" text="O;">
+    <cfRule type="beginsWith" dxfId="22" priority="12" operator="beginsWith" text="O;">
       <formula>LEFT(A1,LEN("O;"))="O;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="7" operator="beginsWith" text="T;">
+    <cfRule type="beginsWith" dxfId="21" priority="7" operator="beginsWith" text="T;">
       <formula>LEFT(A1,LEN("T;"))="T;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="11" operator="beginsWith" text="U;">
+    <cfRule type="beginsWith" dxfId="20" priority="11" operator="beginsWith" text="U;">
       <formula>LEFT(A1,LEN("U;"))="U;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="10" operator="beginsWith" text="P;">
+    <cfRule type="beginsWith" dxfId="19" priority="10" operator="beginsWith" text="P;">
       <formula>LEFT(A1,LEN("P;"))="P;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="9" operator="beginsWith" text="M;">
+    <cfRule type="beginsWith" dxfId="18" priority="9" operator="beginsWith" text="M;">
       <formula>LEFT(A1,LEN("M;"))="M;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="8" operator="beginsWith" text="T">
+    <cfRule type="beginsWith" dxfId="17" priority="8" operator="beginsWith" text="T">
       <formula>LEFT(A1,LEN("T"))="T"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="RD">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="RD">
       <formula>NOT(ISERROR(SEARCH("RD",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="RV">
+      <formula>NOT(ISERROR(SEARCH("RV",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="NR">
-      <formula>NOT(ISERROR(SEARCH("NR",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="BRB">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="BRB">
       <formula>NOT(ISERROR(SEARCH("BRB",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="C;">
+    <cfRule type="beginsWith" dxfId="14" priority="2" operator="beginsWith" text="C;">
       <formula>LEFT(A1,LEN("C;"))="C;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="UC;">
+    <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="UC;">
       <formula>LEFT(A1,LEN("UC;"))="UC;"</formula>
     </cfRule>
   </conditionalFormatting>
